--- a/convert/output.xlsx
+++ b/convert/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="188">
   <si>
     <t>STT</t>
   </si>
@@ -40,718 +40,715 @@
     <t>Link ảnh đáp án</t>
   </si>
   <si>
-    <t>BÀI LUYỆN TẬP TRẮC NGHIỆM SỐ 4</t>
-  </si>
-  <si>
-    <t>1. Phương thức một giai đoạn hai túi hồ sơ?</t>
-  </si>
-  <si>
-    <t>2. Việc lựa chọn nhà thầu đối với gói thầu mua thuốc, vắc xin, thiết bị y tế thông qua các tổ chức quốc tế?</t>
-  </si>
-  <si>
-    <t>3. Thỏa thuận khung?</t>
-  </si>
-  <si>
-    <t>4. Kế hoạch tổng thể lựa chọn nhà thầu cho dự án?</t>
-  </si>
-  <si>
-    <t>5. Kế hoạch lựa chọn nhà thầu?</t>
-  </si>
-  <si>
-    <t>6. Tùy chọn mua thêm được thực hiện khi?</t>
-  </si>
-  <si>
-    <t>7. Đấu thầu trước?</t>
-  </si>
-  <si>
-    <t>8. Việc nêu yêu cầu về nhãn hiệu, xuất xứ?</t>
-  </si>
-  <si>
-    <t>9. Thương thảo hợp đồng áp dụng?</t>
-  </si>
-  <si>
-    <t>10. Đối tượng được hưởng ưu đãi trong lựa chọn nhà thầu bao gồm?</t>
-  </si>
-  <si>
-    <t>11. Các loại hợp đồng đối với lựa chọn nhà thầu bao gồm:</t>
-  </si>
-  <si>
-    <t>12. Trường hợp là nhà thầu liên danh, trong hợp đồng ký với chủ đầu tư, yêu cầu về chữ ký của nhà thầu như thế nào?</t>
-  </si>
-  <si>
-    <t>13. Bảo đảm thực hiện hợp đồng không áp dụng với trường hợp nào?</t>
-  </si>
-  <si>
-    <t>14. Hiệu lực của bảo đảm thực hiện hợp đồng?</t>
-  </si>
-  <si>
-    <t>15. Sửa đổi hợp đồng?</t>
-  </si>
-  <si>
-    <t>16. Nguyên tắc thực hiện hợp đồng?</t>
-  </si>
-  <si>
-    <t>17. Trách nhiệm phê duyệt kế hoạch lựa chọn nhà thầu?</t>
-  </si>
-  <si>
-    <t>18. Việc xử lý tình huống đối với lựa chọn nhà thầu thuộc trách nhiệm của?</t>
-  </si>
-  <si>
-    <t>19. Nội dung của Kế hoạch lựa chọn nhà thầu bao gồm ?</t>
-  </si>
-  <si>
-    <t>20. Một trong các điều kiện để giải quyết kiến nghị của nhà thầu?</t>
-  </si>
-  <si>
-    <t>21. Đối với trường hợp quy định tại điểm a và điểm b khoản 1 Điều 29 của Luật Đấu thầu (liên quan đến mua sắm thuốc), cơ quan nào có thẩm quyền quyết định phương án lựa chọn nhà thầu?</t>
-  </si>
-  <si>
-    <t>22. Đối với trường hợp quy định tại điểm c khoản 1 Điều 29 của Luật Đấu thầu (liên quan đến bảo đảm quốc phòng, an ninh), cơ quan nào có thẩm quyền quyết định cuối cùng về phương án lựa chọn nhà thầu?</t>
-  </si>
-  <si>
-    <t>23. Trong quá trình thẩm định phương án lựa chọn nhà thầu trong trường hợp đặc biệt, Bộ Kế hoạch và Đầu tư có vai trò gì?</t>
-  </si>
-  <si>
-    <t>24. Hồ sơ trình thẩm định, phê duyệt phương án lựa chọn nhà thầu trong trường hợp đặc biệt cần phải nhấn mạnh vào yếu tố nào?</t>
-  </si>
-  <si>
-    <t>25. Ưu điểm lớn nhất của việc áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt là gì?</t>
-  </si>
-  <si>
-    <t>26. Trong bao lâu kể từ ngày nhận được hồ sơ hợp lệ, Bộ Kế hoạch và Đầu tư phải gửi hồ sơ lấy ý kiến của các bộ, cơ quan có liên quan?</t>
-  </si>
-  <si>
-    <t>27. Trong thời hạn bao lâu kể từ ngày nhận được đề nghị của Bộ Kế hoạch và Đầu tư, các cơ quan được lấy ý kiến phải có ý kiến gửi lại?</t>
-  </si>
-  <si>
-    <t>28. Bộ Kế hoạch và Đầu tư có bao nhiêu ngày để lập báo cáo thẩm định và dự thảo Quyết định của Thủ tướng Chính phủ?</t>
-  </si>
-  <si>
-    <t>29. Cơ quan nào có thẩm quyền quyết định áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt đối với các trường hợp quy định tại các điểm d, đ, e, g và h khoản 1 Điều 29 của Luật Đấu thầu?</t>
-  </si>
-  <si>
-    <t>30. Đối với gói thầu thuộc trường hợp quy định tại điểm d khoản 1 Điều 29 (liên quan đến vụ kiện), cơ quan nào chịu trách nhiệm xây dựng tiêu chí, điều khoản tham chiếu để lựa chọn tổ chức hành nghề luật sư?</t>
-  </si>
-  <si>
-    <t>31. Quy trình lựa chọn nhà thầu đối với các trường hợp quy định tại các điểm đ, e, g và h khoản 1 Điều 29 (trừ trường hợp mua vé máy bay) bao gồm bao nhiêu bước?</t>
-  </si>
-  <si>
-    <t>32. Đối với gói thầu mua vé máy bay cho đoàn đi công tác trong nước, người có thẩm quyền ký hợp đồng với nhà cung cấp là ai?</t>
-  </si>
-  <si>
-    <t>33. Quy trình lựa chọn nhà thầu trong trường hợp đặc biệt (trừ trường hợp mua vé máy bay) bao gồm những bước nào?</t>
-  </si>
-  <si>
-    <t>34. Khi mua vé máy bay cho đoàn đi công tác quốc tế, cơ quan, đơn vị cần lấy tối thiểu bao nhiêu báo giá để so sánh?</t>
-  </si>
-  <si>
-    <t>35. Điều kiện nào sau đây KHÔNG BẮT BUỘC để cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ tại địa phương có tư cách hợp lệ tham gia thực hiện gói thầu?</t>
-  </si>
-  <si>
-    <t>36. Ai được lựa chọn để đại diện cho cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ ký kết hợp đồng?</t>
-  </si>
-  <si>
-    <t>37. Mục đích của việc cho phép cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ tại địa phương tham gia thực hiện gói thầu là gì?</t>
-  </si>
-  <si>
-    <t>38. Ai là người chịu trách nhiệm dự thảo hợp đồng khi lựa chọn nhà thầu là cộng đồng dân cư?</t>
-  </si>
-  <si>
-    <t>39. Trong trường hợp chỉ có một cộng đồng dân cư hoặc tổ chức đoàn thể, nhóm thợ quan tâm đến gói thầu, chủ đầu tư sẽ làm gì?</t>
-  </si>
-  <si>
-    <t>40. Kết quả lựa chọn cộng đồng dân cư, tổ chức đoàn thể hoặc nhóm thợ được công khai ở đâu?</t>
-  </si>
-  <si>
-    <t>41. Trường hợp nào chủ đầu tư được phép giao gói thầu cho nhóm thợ thực hiện?</t>
-  </si>
-  <si>
-    <t>42. Ai là người chịu trách nhiệm giám sát việc thực hiện gói thầu có sự tham gia của cộng đồng?</t>
-  </si>
-  <si>
-    <t>43. Thành phần nào bắt buộc phải có trong quá trình nghiệm thu gói thầu có sự tham gia của cộng đồng?</t>
-  </si>
-  <si>
-    <t>44. Chủ đầu tư có thể tạm ứng cho cộng đồng dân cư bằng hình thức nào?</t>
-  </si>
-  <si>
-    <t>45. Trong trường hợp nào đơn vị mua sắm tập trung được phép thuê tư vấn đấu thầu?</t>
-  </si>
-  <si>
-    <t>46. Đối với hàng hóa, dịch vụ thuộc danh mục phải áp dụng mua sắm tập trung sử dụng thỏa thuận khung, đơn vị có nhu cầu mua sắm phải làm gì?</t>
-  </si>
-  <si>
-    <t>47. Điều gì xảy ra nếu đơn vị có nhu cầu mua sắm ký kết hợp đồng với nhà thầu không được lựa chọn thông qua mua sắm tập trung trong khi thỏa thuận khung còn hiệu lực?</t>
-  </si>
-  <si>
-    <t>48. Ai là người chịu trách nhiệm trong việc mua sắm tập trung?</t>
-  </si>
-  <si>
-    <t>49. Thỏa thuận khung là gì?</t>
-  </si>
-  <si>
-    <t>50. Mua sắm tập trung được áp dụng cho loại hàng hóa, dịch vụ nào?</t>
-  </si>
-  <si>
-    <t>51. Đơn vị mua sắm tập trung có trách nhiệm gì trong mua sắm tập trung?</t>
-  </si>
-  <si>
-    <t>52. Việc xác định khối lượng mua sắm tập trung được căn cứ vào yếu tố nào?</t>
-  </si>
-  <si>
-    <t>53. Đơn vị mua sắm tập trung có trách nhiệm gì đối với cơ sở khám bệnh, chữa bệnh tư nhân?</t>
-  </si>
-  <si>
-    <t>54. Trong trường hợp đơn vị mua sắm tập trung trực tiếp ký kết hợp đồng với nhà thầu, khi nào nhà thầu phải thực hiện biện pháp bảo đảm thực hiện hợp đồng?</t>
-  </si>
-  <si>
-    <t>55. Nhà thầu bị khóa tài khoản trên Hệ thống mạng đấu thầu quốc gia trong bao lâu nếu không ký hợp đồng hoặc không thực hiện biện pháp bảo đảm thực hiện hợp đồng trừ trường hợp bất khả kháng khi Nhà thầu đã ký thỏa thuận khung và được đơn vị có nhu cầu mua sắm yêu cầu ký hợp đồng ?</t>
-  </si>
-  <si>
-    <t>56. Việc khóa tài khoản của nhà thầu vi phạm được tính từ thời điểm nào?</t>
-  </si>
-  <si>
-    <t>57. Đơn vị nào quy định nội dung chi tiết của thỏa thuận khung?</t>
-  </si>
-  <si>
-    <t>58. Nội dung nào sau đây không bắt buộc phải có trong thỏa thuận khung?</t>
-  </si>
-  <si>
-    <t>59. Ai có thẩm quyền quyết định việc mua sắm tài sản công tại cơ quan, đơn vị?</t>
-  </si>
-  <si>
-    <t>60. Thủ trưởng cơ quan trung ương có quyền quyết định việc mua sắm tài sản trong trường hợp nào?</t>
-  </si>
-  <si>
-    <t>A. Chào hàng cạnh tranh đối với gói thầu cung cấp dịch vụ phi tư vấn, mua sắm hàng hóa, xây lắp, gói thầu hỗn hợp cung cấp hàng hóa và xây lắp.
-B. Đấu thầu rộng rãi, đấu thầu hạn chế đối với gói thầu cung cấp dịch vụ phi tư vấn, mua sắm hàng hóa, xây lắp, hỗn hợp đòi hỏi kỹ thuật cao theo quy định của pháp luật về khoa học, công nghệ. 
-C. Chỉ định thầu đối với gói thầu cung cấp dịch vụ tư vấn.
-D. Đấu thầu rộng rãi, đấu thầu hạn chế đối với gói thầu mua sắm hàng hóa, xây lắp, hỗn hợp có kỹ thuật, công nghệ mới, phức tạp, có tính đặc thù mà chưa xác định được chính xác các yêu cầu kỹ thuật cụ thể, đầy đủ cho gói thầu tại thời điểm tổ chức đấu thầu.</t>
-  </si>
-  <si>
-    <t>A. Áp dụng hình thức chỉ định thầu.
-B. Áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt. 
-C. Bắt buộc phải tổ chức đấu thầu rộng rãi quốc tế.
-D. Bắt buộc phải tổ chức đấu thầu rộng rãi trong nước.</t>
-  </si>
-  <si>
-    <t>A. Thời hạn áp dụng thỏa thuận khung được quy định trong kế hoạch lựa chọn nhà thầu nhưng không quá 36 tháng. Tại thời điểm ký thỏa thuận khung, hồ sơ dự thầu của nhà thầu được lựa chọn còn hiệu lực.
-B. Đối với nhà thầu liên danh, thành viên đứng đầu liên danh đại đại diện cho liên danh ký  thỏa thuận khung với bên mời thầu.
-C. Khi áp dụng hình thức mua sắm tập trung, bắt buộc phải ký thỏa thuận khung đối với gói thầu không chia phần.
-D. Khi áp dụng hình thức mua sắm tập trung, bắt buộc phải ký thỏa thuận khung đối với gói thầu chia phần.</t>
-  </si>
-  <si>
-    <t>A. Được lập đồng thời hoặc độc lập với báo cáo nghiên cứu khả thi.
-B. Được phê duyệt trước khi báo cáo nghiên cứu khả thi được phê duyệt.
-C. Chủ đầu tư hoặc cơ quan chuẩn bị dự án bắt buộc phải trình người có thẩm quyền xem xét, quyết định.
-D. Cả 03 đáp án a, b, c đều sai.</t>
-  </si>
-  <si>
-    <t>A. Phải lập kế hoạch lựa chọn nhà thầu cho toàn bộ dự án, dự toán mua sắm.
-B. Trường hợp chưa đủ điều kiện lập kế hoạch lựa chọn nhà thầu cho toàn bộ dự án, dự toán mua sắm thì lập kế hoạch lựa chọn nhà thầu cho một hoặc một số gói thầu để thực hiện trước. 
-C. Không được lập kế hoạch lựa chọn nhà thầu cho các gói thầu có thời gian thực hiện dài hơn 01 năm.
-D. Cả 02 đáp án a, b đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Nhà thầu đã trúng thầu thông qua đấu thầu rộng rãi, đàm phán giá; khối lượng mua thêm không vượt 30% của khối lượng hạng mục tương ứng nêu trong hợp đồng.
-B. Có dự toán được phê duyệt đối với khối lượng mua thêm; đơn giá của hàng hóa, dịch vụ mua thêm không được vượt đơn giá của các hàng hóa, dịch vụ tương ứng trong hợp đồng.
-C. Chỉ áp dụng trong thời gian có hiệu lực của hợp đồng.
-D. Cả 03 đáp án a, b và c đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Các hoạt động thực hiện trước khi ký kết điều ước quốc tế, thỏa thuận về vốn ODA và vốn vay ưu đãi của nhà tài trợ nước ngoài gồm: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn.
-B. Không được phép thực hiện các hoạt động: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn trước khi ký kết điều ước quốc tế, thỏa thuận về vốn ODA và vốn vay ưu đãi của nhà tài trợ nước ngoài.
-C. Được phép thực hiện các hoạt động: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn trước khi phê duyệt dự án sử dụng vốn ngân sách nhà nước.
-D. Người có thẩm quyền quyết định cho phép thực hiện các hoạt động: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn trước khi phê duyệt dự án sử dụng vốn ngân sách nhà nước.</t>
-  </si>
-  <si>
-    <t>A. Hồ sơ mời thầu được yêu cầu cụ thể về nhãn hiệu, xuất xứ.
-B. Hồ sơ mời thầu được nêu xuất xứ theo nhóm nước, vùng lãnh thổ.
-C. Trong mọi trường hợp, hồ sơ mời thầu đều không được nêu yêu cầu về nhãn hiệu, xuất xứ.
-D. Trường hợp người có thẩm quyền chấp thuận, hồ sơ mời thầu được nêu yêu cầu cụ thể về nhãn hiệu, xuất xứ để lựa chọn đúng hàng hóa mong muốn.</t>
-  </si>
-  <si>
-    <t>A. Bắt buộc phải thương thảo hợp đồng với tất cả các hình thức lựa chọn nhà thầu.
-B. Chỉ thương thảo hợp đồng với gói thầu áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.
-C. Không bắt buộc thương thảo hợp đồng với gói thầu mua sắm hàng hóa, xây lắp, cung cấp dịch vụ phi tư vấn áp dụng đấu thầu quốc tế, gói thầu hỗn hợp và gói thầu có yêu cầu kỹ thuật cao áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.
-D. Không bắt buộc thương thảo hợp đồng với gói thầu dịch vụ tư vấn áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.</t>
-  </si>
-  <si>
-    <t>A. Hàng hóa có xuất xứ Việt Nam.
-B. Nhà thầu là doanh nghiệp khởi nghiệp sáng tạo theo quy định của pháp luật.
-C. Nhà thầu có sử dụng số lượng lao động nữ từ 25% trở lên; số lượng lao động là thương binh, người khuyết tật từ 25% trở lên; số lượng lao động là người dân tộc thiểu số từ 25% trở lên.
-D. Cả 3 đáp án a, b, c đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng theo tỷ lệ phần trăm, hợp đồng theo chi phí cộng phí, hợp đồng theo kết quả đầu ra, hợp đồng hỗn hợp.
-B. Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng theo tỷ lệ phần trăm.
-C. Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian.
-D. Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng hỗn hợp.</t>
-  </si>
-  <si>
-    <t>A. Trường hợp là nhà thầu liên danh, tất cả thành viên tham gia liên danh phải trực tiếp ký, đóng dấu (nếu có) vào văn bản hợp đồng.
-B. Trường hợp là nhà thầu liên danh, trong hợp đồng ký với chủ đầu tư chỉ cần nhà thầu đứng đầu liên danh đại diện ký hợp đồng với chủ đầu tư.
-C.  Trường hợp là nhà thầu liên danh, trong hợp đồng ký với chủ đầu tư, không yêu cầu phải có tất cả các nhà thầu liên danh ký với chủ đầu tư.
-D. Theo quy định của Chủ đầu tư.</t>
-  </si>
-  <si>
-    <t>A. Nhà thầu cung cấp dịch vụ tư vấn.
-B. Nhà thầu được lựa chọn theo hình thức tự thực hiện hoặc hình thức tham gia thực hiện của cộng đồng.
-C. Nhà thầu thực hiện gói thầu có giá gói thầu thuộc hạn mức chỉ định thầu quy định tại điểm m khoản 1 Điều 23 của Luật Đấu thầu số 22/2023/QH15.
-D. Tất cả 03 đáp án a, b và c đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng có hiệu lực cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng bao gồm nghĩa vụ về bảo hành. 
-B. Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng có hiệu lực cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng hoặc ngày chuyển sang thực hiện nghĩa vụ bảo hành đối với trường hợp có quy định về bảo hành. 
-C. Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng được các bên ký kết cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng hoặc ngày chuyển sang thực hiện nghĩa vụ bảo hành đối với trường hợp có quy định về bảo hành.
-D. Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng được các bên ký kết cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng  bao gồm nghĩa vụ về bảo hành.</t>
-  </si>
-  <si>
-    <t>A. Chủ đầu tư và nhà thầu bắt buộc phải ký kết phụ lục hợp đồng để sửa đổi hợp đồng.
-B. Chủ đầu tư được quyền quyết định việc ký kết hoặc không ký kết phụ lục hợp đồng để sửa đổi hợp đồng.
-C. Khi sửa đổi hợp đồng làm thay đổi thời gian thực hiện hợp đồng hoặc vượt giá gói thầu (bao gồm dự phòng) được duyệt thì phải được người có thẩm quyền cho phép. Giá hợp đồng sau khi điều chỉnh phải bảo đảm khong vượt tổng mức đầu tư, dự toán mua sắm.
-D. Trong mọi trường hợp không được sửa đổi hợp đồng đã ký kết.</t>
-  </si>
-  <si>
-    <t>A. Các bên ký kết hợp đồng có trách nhiệm thực hiện theo hợp đồng đã ký kết.
-B. Bảo đảm trung thực, hợp tác và đúng pháp luật.
-C. Không xâm phạm đến lợi ích của Nhà nước, cộng đồng và lợi ích hợp pháp của tổ chức, cá nhân khác.
-D. Các đáp án a, b và c đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Thuộc trách nhiệm của người có thẩm quyền.
-B. Thuộc trách nhiệm của chủ đầu tư trong trường hợp gói thầu được thực hiện trước khi có quyết định phê duyệt dự án, gói thầu đấu thầu trước; kế hoạch lựa chọn nhà thầu đối với dự án đã phê duyệt kế hoạch tổng thể lựa chọn nhà thầu.
-C. Trong mọi trường hợp, người có thẩm quyền chịu trách nhiệm phê duyệt kế hoạch lựa chọn nhà thầu.
-D. Cả 02 đáp án a và b đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Chủ đầu tư đối với dự án.
-B. Bên mời thầu đối với dự toán mua sắm.
-C. Chủ đầu tư đối với dự án và dự toán mua sắm. 
-D. Cả 03 đáp án a, b và c trên đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng.
-B. Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng, tùy chọn mua thêm (nếu có) và giám sát (nếu có).
-C. Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng, tùy chọn mua thêm (nếu có).
-D. Tất cả 03 đáp án trên đều sai.</t>
-  </si>
-  <si>
-    <t>A. Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn hoặc được ký số, gửi trên Hệ thống mạng đấu thầu quốc gia. 
-B. Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn.
-C. Đơn kiến nghị phải được ký số, gửi trên Hệ thống mạng đấu thầu quốc gia.
-D. Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn và gửi trên Hệ thống mạng đấu thầu quốc gia.</t>
-  </si>
-  <si>
-    <t>A. Bộ Kế hoạch và Đầu tư.
-B. Bộ Y tế.
-C. Chủ tịch Ủy ban nhân dân cấp tỉnh.
-D. Thủ tướng Chính phủ.</t>
-  </si>
-  <si>
-    <t>A. Bộ Kế hoạch và Đầu tư.
-B. Bộ Quốc phòng.
-C. Thủ tướng Chính phủ.
-D. Chủ tịch Ủy ban nhân dân cấp tỉnh.</t>
-  </si>
-  <si>
-    <t>A. Lập báo cáo thẩm định.
-B. Lấy ý kiến của các bộ, ngành liên quan.
-C. Cả A và B đều đúng.
-D. Chỉ có A là đúng.</t>
-  </si>
-  <si>
-    <t>A. Tính cấp thiết của dự án.
-B. Lý do không thể áp dụng hình thức lựa chọn nhà thầu thông thường.
-C. Năng lực của các nhà thầu tiềm năng.
-D. Tất cả các đáp án trên.</t>
-  </si>
-  <si>
-    <t>A. Tiết kiệm thời gian.
-B. Đảm bảo tính bảo mật.
-C. Tăng tính cạnh tranh.
-D. Giảm chi phí.</t>
-  </si>
-  <si>
-    <t>A. 3 ngày làm việc
-B. 5 ngày làm việc
-C. 7 ngày làm việc
-D. 10 ngày làm việc</t>
-  </si>
-  <si>
-    <t>A. 5 ngày làm việc
-B. 7 ngày làm việc
-C. 10 ngày làm việc
-D. 15 ngày làm việc</t>
-  </si>
-  <si>
-    <t>A. Bộ Kế hoạch và Đầu tư
-B. Người có thẩm quyền của cơ quan, đơn vị
-C. Thủ trưởng cơ quan trung ương, Ủy ban nhân dân cấp tỉnh
-D. Bộ trưởng Bộ Y tế</t>
-  </si>
-  <si>
-    <t>A. Bộ Tư pháp
-B. Cơ quan chủ trì giải quyết vụ kiện
-C. Tổ chức luật sư
-D. Tòa án</t>
-  </si>
-  <si>
-    <t>A. 3 bước
-B. 4 bước
-C. 5 bước
-D. 6 bước</t>
-  </si>
-  <si>
-    <t>A. Người đứng đầu cơ quan, đơn vị được giao kinh phí và nhiệm vụ mua vé máy bay
-B. Bộ trưởng Bộ Giao thông vận tải
-C. Chủ tịch Ủy ban nhân dân cấp tỉnh
-D. Giám đốc Sở Giao thông vận tải</t>
-  </si>
-  <si>
-    <t>A. Lập kế hoạch, thương thảo hợp đồng, ký kết hợp đồng
-B. Lập kế hoạch, phê duyệt kế hoạch, thương thảo hợp đồng, ký kết hợp đồng
-C. Lập kế hoạch, thẩm định kế hoạch, phê duyệt kế hoạch, thương thảo hợp đồng, phê duyệt kết quả lựa chọn nhà thầu, ký kết hợp đồng
-D. Thương thảo hợp đồng, phê duyệt kết quả lựa chọn nhà thầu, ký kết hợp đồng</t>
-  </si>
-  <si>
-    <t>A. 1 báo giá
-B. 2 báo giá
-C. 3 báo giá
-D. 4 báo giá</t>
-  </si>
-  <si>
-    <t>A. Sinh sống, cư trú trên địa bàn triển khai gói thầu
-B. Được hưởng lợi từ gói thầu
-C. Có kinh nghiệm thực hiện các gói thầu tương tự trước đây
-D. Người đại diện có năng lực hành vi dân sự đầy đủ</t>
-  </si>
-  <si>
-    <t>A. Người có trình độ chuyên môn cao nhất
-B. Người có uy tín nhất trong cộng đồng
-C. Người được cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ lựa chọn
-D. Người do Chủ đầu tư chỉ định</t>
-  </si>
-  <si>
-    <t>A. Tạo điều kiện cho cộng đồng tham gia phát triển kinh tế - xã hội
-B. Giảm chi phí thực hiện gói thầu
-C. Tăng cường sự minh bạch trong quá trình đấu thầu
-D. Nâng cao chất lượng công trình</t>
-  </si>
-  <si>
-    <t>A. Ủy ban nhân dân cấp xã
-B. Chủ đầu tư
-C. Cộng đồng dân cư
-D. Tổ chức đoàn thể</t>
-  </si>
-  <si>
-    <t>A.  Tổ chức đấu thầu lại
-B.  Xem xét giao cho cộng đồng dân cư đó thực hiện
-C.  Huỷ bỏ gói thầu
-D.  Tìm kiếm nhà thầu khác</t>
-  </si>
-  <si>
-    <t>A.  Hệ thống mạng đấu thầu quốc gia
-B.  Trụ sở Ủy ban nhân dân cấp xã
-C.  Phương tiện truyền thông cấp xã
-D.  Cả ba phương án trên</t>
-  </si>
-  <si>
-    <t>A.  Khi không có cộng đồng dân cư nào quan tâm.
-B.  Khi nhóm thợ có đủ năng lực hơn cộng đồng dân cư.
-C.  Khi chủ đầu tư muốn tiết kiệm chi phí.
-D.  Khi có yêu cầu từ Ủy ban nhân dân cấp xã.</t>
-  </si>
-  <si>
-    <t>A.  Chỉ chủ đầu tư.
-B.  Ủy ban nhân dân cấp xã.
-C.  Tổ chức đoàn thể.
-D.  Cả chủ đầu tư, Ủy ban nhân dân cấp xã và các tổ chức đoàn thể.</t>
-  </si>
-  <si>
-    <t>A.  Đại diện cơ quan thuế.
-B.  Đại diện Ủy ban nhân dân cấp huyện.
-C.  Đại diện cộng đồng dân cư được hưởng lợi từ gói thầu.
-D.  Chuyên gia độc lập.</t>
-  </si>
-  <si>
-    <t>A.  Tiền mặt.
-B.  Chuyển khoản.
-C.  Cả A và B đều đúng.
-D.  Chỉ được tạm ứng bằng hiện vật.</t>
-  </si>
-  <si>
-    <t>A.  Khi đơn vị muốn tiết kiệm thời gian.
-B.  Khi đơn vị thiếu kinh nghiệm trong lĩnh vực mua sắm.
-C.  Khi đơn vị không đủ năng lực thực hiện lựa chọn nhà thầu.
-D.  Khi giá trị gói thầu quá lớn.</t>
-  </si>
-  <si>
-    <t>A.  Tự tổ chức lựa chọn nhà thầu.
-B.  Ký kết hợp đồng với nhà thầu do mình lựa chọn.
-C.  Ký kết hợp đồng với nhà thầu đã được lựa chọn thông qua mua sắm tập trung.
-D.  Mua sắm trực tiếp từ nhà cung cấp.</t>
-  </si>
-  <si>
-    <t>A.  Hợp đồng bị hủy bỏ.
-B.  Đơn vị bị xử phạt hành chính.
-C.  Không được thanh toán.
-D.  Tất cả đáp án trên đều đúng</t>
-  </si>
-  <si>
-    <t>A.  Bộ trưởng Bộ Kế hoạch và Đầu tư.
-B.  Thủ trưởng đơn vị mua sắm tập trung.
-C.  Chủ tịch Ủy ban nhân dân cấp tỉnh.
-D.  Người có thẩm quyền của đơn vị có nhu cầu mua sắm.</t>
-  </si>
-  <si>
-    <t>A.  Hợp đồng mua bán hàng hóa, dịch vụ.
-B.  Văn bản thỏa thuận giữa các nhà thầu.
-C.  Văn bản thỏa thuận về nguyên tắc, nội dung cơ bản của việc mua sắm tập trung.
-D.  Quy định về hình thức lựa chọn nhà thầu.</t>
-  </si>
-  <si>
-    <t>A.  Hàng hóa, dịch vụ thông thường.
-B.  Hàng hóa, dịch vụ chuyên ngành.
-C.  Hàng hóa, dịch vụ thuộc danh mục phải mua sắm tập trung.
-D.  Tất cả các đáp án trên.</t>
-  </si>
-  <si>
-    <t>A.  Thực hiện trách nhiệm của chủ đầu tư.
-B.  Thực hiện trách nhiệm của người có thẩm quyền.
-C.  Chỉ chịu trách nhiệm về việc lựa chọn nhà thầu.
-D.  Không chịu trách nhiệm gì.</t>
-  </si>
-  <si>
-    <t>A. Danh mục hàng hóa, dịch vụ của các đơn vị gửi đến đơn vị mua sắm tập trung.
-B. Khối lượng và số lượng sử dụng thực tế của kỳ mua sắm trước đó.
-C. Cả A và B đều đúng.
-D.  Chỉ căn cứ vào khối lượng và số lượng sử dụng thực tế của kỳ mua sắm trước đó.</t>
-  </si>
-  <si>
-    <t>A. Không có trách nhiệm gì.
-B. Tổng hợp nhu cầu mua sắm và tổ chức mua thuốc, hóa chất, vật tư xét nghiệm, thiết bị y tế.
-C. Chỉ tổng hợp nhu cầu mua sắm.
-D. Chỉ tổ chức mua thuốc, hóa chất, vật tư xét nghiệm, thiết bị y tế.</t>
-  </si>
-  <si>
-    <t>A.  Trước khi ký kết thỏa thuận khung.
-B.  Sau khi ký kết hợp đồng.
-C.  Trước hoặc cùng thời điểm hợp đồng có hiệu lực.
-D.  Không cần thực hiện biện pháp bảo đảm.</t>
-  </si>
-  <si>
-    <t>A. 3 tháng.
-B. 6 tháng.
-C. 1 năm.
-D. Vĩnh viễn.</t>
-  </si>
-  <si>
-    <t>A.  Ngày nhà thầu vi phạm hợp đồng.
-B.  Ngày đơn vị mua sắm tập trung gửi văn bản đề nghị đến Bộ Kế hoạch và Đầu tư.
-C.  Ngày Bộ Kế hoạch và Đầu tư nhận được văn bản đề nghị của đơn vị mua sắm tập trung.
-D.  Ngày Bộ Kế hoạch và Đầu tư ra quyết định xử phạt vi phạm.</t>
-  </si>
-  <si>
-    <t>A.  Chủ đầu tư.
-B.  Đơn vị có nhu cầu mua sắm.
-C.  Đơn vị mua sắm tập trung.
-D.  Bộ Kế hoạch và Đầu tư.</t>
-  </si>
-  <si>
-    <t>A.  Phạm vi cung cấp hàng hóa, dịch vụ.
-B.  Mức giá trần của từng loại hàng hóa, dịch vụ.
-C.  Các điều khoản phạt vi phạm.
-D.  Thông tin chi tiết về năng lực của nhà thầu.</t>
-  </si>
-  <si>
-    <t>A.  Thủ trưởng đơn vị dự toán.
-B.  Thủ trưởng cơ quan trung ương.
-C.  Thực hiện theo quy định của pháp luật về quản lý, sử dụng tài sản công.
-D.  Hội đồng nhân dân cấp tỉnh.</t>
-  </si>
-  <si>
-    <t>A.  Mua sắm tài sản công.
-B.  Mua sắm tài sản thuộc các nhiệm vụ khoa học và công nghệ sử dụng ngân sách nhà nước.
-C.  Mua sắm phục vụ hoạt động của đơn vị sự nghiệp công lập.
-D.  Đáp án B và C đều đúng</t>
-  </si>
-  <si>
-    <t>B. Đấu thầu rộng rãi, đấu thầu hạn chế đối với gói thầu cung cấp dịch vụ phi tư vấn, mua sắm hàng hóa, xây lắp, hỗn hợp đòi hỏi kỹ thuật cao theo quy định của pháp luật về khoa học, công nghệ.</t>
-  </si>
-  <si>
-    <t>B. Áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt.</t>
-  </si>
-  <si>
-    <t>A. Thời hạn áp dụng thỏa thuận khung được quy định trong kế hoạch lựa chọn nhà thầu nhưng không quá 36 tháng. Tại thời điểm ký thỏa thuận khung, hồ sơ dự thầu của nhà thầu được lựa chọn còn hiệu lực.</t>
-  </si>
-  <si>
-    <t>A. Được lập đồng thời hoặc độc lập với báo cáo nghiên cứu khả thi.</t>
-  </si>
-  <si>
-    <t>B. Trường hợp chưa đủ điều kiện lập kế hoạch lựa chọn nhà thầu cho toàn bộ dự án, dự toán mua sắm thì lập kế hoạch lựa chọn nhà thầu cho một hoặc một số gói thầu để thực hiện trước.</t>
-  </si>
-  <si>
-    <t>D. Cả 03 đáp án a, b và c đều đúng.</t>
-  </si>
-  <si>
-    <t>A. Các hoạt động thực hiện trước khi ký kết điều ước quốc tế, thỏa thuận về vốn ODA và vốn vay ưu đãi của nhà tài trợ nước ngoài gồm: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn.</t>
-  </si>
-  <si>
-    <t>B. Hồ sơ mời thầu được nêu xuất xứ theo nhóm nước, vùng lãnh thổ.</t>
-  </si>
-  <si>
-    <t>C. Không bắt buộc thương thảo hợp đồng với gói thầu mua sắm hàng hóa, xây lắp, cung cấp dịch vụ phi tư vấn áp dụng đấu thầu quốc tế, gói thầu hỗn hợp và gói thầu có yêu cầu kỹ thuật cao áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.</t>
-  </si>
-  <si>
-    <t>D. Cả 3 đáp án a, b, c đều đúng</t>
-  </si>
-  <si>
-    <t>B. Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng theo tỷ lệ phần trăm.</t>
-  </si>
-  <si>
-    <t>A. Trường hợp là nhà thầu liên danh, tất cả thành viên tham gia liên danh phải trực tiếp ký, đóng dấu (nếu có) vào văn bản hợp đồng.</t>
-  </si>
-  <si>
-    <t>D. Tất cả 03 đáp án a, b và c đều đúng.</t>
-  </si>
-  <si>
-    <t>B. Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng có hiệu lực cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng hoặc ngày chuyển sang thực hiện nghĩa vụ bảo hành đối với trường hợp có quy định về bảo hành.</t>
-  </si>
-  <si>
-    <t>C. Khi sửa đổi hợp đồng làm thay đổi thời gian thực hiện hợp đồng hoặc vượt giá gói thầu (bao gồm dự phòng) được duyệt thì phải được người có thẩm quyền cho phép. Giá hợp đồng sau khi điều chỉnh phải bảo đảm khong vượt tổng mức đầu tư, dự toán mua sắm.</t>
-  </si>
-  <si>
-    <t>D. Các đáp án a, b và c đều đúng</t>
-  </si>
-  <si>
-    <t>D. Cả 02 đáp án a và b đều đúng.</t>
-  </si>
-  <si>
-    <t>C. Chủ đầu tư đối với dự án và dự toán mua sắm.</t>
-  </si>
-  <si>
-    <t>B. Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng, tùy chọn mua thêm (nếu có) và giám sát (nếu có).</t>
-  </si>
-  <si>
-    <t>A. Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn hoặc được ký số, gửi trên Hệ thống mạng đấu thầu quốc gia.</t>
-  </si>
-  <si>
-    <t>B. Bộ Y tế.</t>
-  </si>
-  <si>
-    <t>C. Thủ tướng Chính phủ.</t>
-  </si>
-  <si>
-    <t>C. Cả A và B đều đúng.</t>
-  </si>
-  <si>
-    <t>B. Lý do không thể áp dụng hình thức lựa chọn nhà thầu thông thường.</t>
-  </si>
-  <si>
-    <t>B. Đảm bảo tính bảo mật.</t>
-  </si>
-  <si>
-    <t>B. 5 ngày làm việc</t>
-  </si>
-  <si>
-    <t>C. 7 ngày làm việc</t>
-  </si>
-  <si>
-    <t>C. 10 ngày làm việc</t>
-  </si>
-  <si>
-    <t>C. Thủ trưởng cơ quan trung ương, Ủy ban nhân dân cấp tỉnh</t>
-  </si>
-  <si>
-    <t>B. Cơ quan chủ trì giải quyết vụ kiện</t>
-  </si>
-  <si>
-    <t>B. 4 bước</t>
-  </si>
-  <si>
-    <t>A. Người đứng đầu cơ quan, đơn vị được giao kinh phí và nhiệm vụ mua vé máy bay</t>
-  </si>
-  <si>
-    <t>C. Lập kế hoạch, thẩm định kế hoạch, phê duyệt kế hoạch, thương thảo hợp đồng, phê duyệt kết quả lựa chọn nhà thầu, ký kết hợp đồng</t>
-  </si>
-  <si>
-    <t>B. 2 báo giá</t>
-  </si>
-  <si>
-    <t>C. Có kinh nghiệm thực hiện các gói thầu tương tự trước đây</t>
-  </si>
-  <si>
-    <t>C. Người được cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ lựa chọn</t>
-  </si>
-  <si>
-    <t>A. Tạo điều kiện cho cộng đồng tham gia phát triển kinh tế - xã hội</t>
-  </si>
-  <si>
-    <t>B. Chủ đầu tư</t>
-  </si>
-  <si>
-    <t>B.  Xem xét giao cho cộng đồng dân cư đó thực hiện</t>
-  </si>
-  <si>
-    <t>D.  Cả ba phương án trên</t>
-  </si>
-  <si>
-    <t>A.  Khi không có cộng đồng dân cư nào quan tâm</t>
-  </si>
-  <si>
-    <t>D.  Cả chủ đầu tư, Ủy ban nhân dân cấp xã và các tổ chức đoàn thể.</t>
-  </si>
-  <si>
-    <t>C.  Đại diện cộng đồng dân cư được hưởng lợi từ gói thầu.</t>
-  </si>
-  <si>
-    <t>C.  Cả A và B đều đúng.</t>
-  </si>
-  <si>
-    <t>C.  Khi đơn vị không đủ năng lực thực hiện lựa chọn nhà thầu.</t>
-  </si>
-  <si>
-    <t>C.  Ký kết hợp đồng với nhà thầu đã được lựa chọn thông qua mua sắm tập trung.</t>
-  </si>
-  <si>
-    <t>D.  Tất cả đáp án trên đều đúng</t>
-  </si>
-  <si>
-    <t>B.  Thủ trưởng đơn vị mua sắm tập trung.</t>
-  </si>
-  <si>
-    <t>D.  Quy định về hình thức lựa chọn nhà thầu</t>
-  </si>
-  <si>
-    <t>C.  Hàng hóa, dịch vụ thuộc danh mục phải mua sắm tập trung.</t>
-  </si>
-  <si>
-    <t>A.  Thực hiện trách nhiệm của chủ đầu tư.</t>
-  </si>
-  <si>
-    <t>B. Tổng hợp nhu cầu mua sắm và tổ chức mua thuốc, hóa chất, vật tư xét nghiệm, thiết bị y tế.</t>
-  </si>
-  <si>
-    <t>C.  Trước hoặc cùng thời điểm hợp đồng có hiệu lực.</t>
-  </si>
-  <si>
-    <t>B. 6 tháng.</t>
-  </si>
-  <si>
-    <t>C.  Ngày Bộ Kế hoạch và Đầu tư nhận được văn bản đề nghị của đơn vị mua sắm tập trung</t>
-  </si>
-  <si>
-    <t>C.  Đơn vị mua sắm tập trung.</t>
-  </si>
-  <si>
-    <t>D.  Thông tin chi tiết về năng lực của nhà thầu.</t>
-  </si>
-  <si>
-    <t>C.  Thực hiện theo quy định của pháp luật về quản lý, sử dụng tài sản công.</t>
-  </si>
-  <si>
-    <t>D.  Đáp án B và C đều đúng</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Phương thức một giai đoạn hai túi hồ sơ?</t>
+  </si>
+  <si>
+    <t>Việc lựa chọn nhà thầu đối với gói thầu mua thuốc, vắc xin, thiết bị y tế thông qua các tổ chức quốc tế?</t>
+  </si>
+  <si>
+    <t>Thỏa thuận khung?</t>
+  </si>
+  <si>
+    <t>Kế hoạch tổng thể lựa chọn nhà thầu cho dự án?</t>
+  </si>
+  <si>
+    <t>Kế hoạch lựa chọn nhà thầu?</t>
+  </si>
+  <si>
+    <t>Tùy chọn mua thêm được thực hiện khi?</t>
+  </si>
+  <si>
+    <t>Đấu thầu trước?</t>
+  </si>
+  <si>
+    <t>Việc nêu yêu cầu về nhãn hiệu, xuất xứ?</t>
+  </si>
+  <si>
+    <t>Thương thảo hợp đồng áp dụng?</t>
+  </si>
+  <si>
+    <t>Đối tượng được hưởng ưu đãi trong lựa chọn nhà thầu bao gồm?</t>
+  </si>
+  <si>
+    <t>Các loại hợp đồng đối với lựa chọn nhà thầu bao gồm:</t>
+  </si>
+  <si>
+    <t>Trường hợp là nhà thầu liên danh, trong hợp đồng ký với chủ đầu tư, yêu cầu về chữ ký của nhà thầu như thế nào?</t>
+  </si>
+  <si>
+    <t>Bảo đảm thực hiện hợp đồng không áp dụng với trường hợp nào?</t>
+  </si>
+  <si>
+    <t>Hiệu lực của bảo đảm thực hiện hợp đồng?</t>
+  </si>
+  <si>
+    <t>Sửa đổi hợp đồng?</t>
+  </si>
+  <si>
+    <t>Nguyên tắc thực hiện hợp đồng?</t>
+  </si>
+  <si>
+    <t>Trách nhiệm phê duyệt kế hoạch lựa chọn nhà thầu?</t>
+  </si>
+  <si>
+    <t>Việc xử lý tình huống đối với lựa chọn nhà thầu thuộc trách nhiệm của?</t>
+  </si>
+  <si>
+    <t>Nội dung của Kế hoạch lựa chọn nhà thầu bao gồm ?</t>
+  </si>
+  <si>
+    <t>Một trong các điều kiện để giải quyết kiến nghị của nhà thầu?</t>
+  </si>
+  <si>
+    <t>Đối với trường hợp quy định tại điểm a và điểm b khoản 1 Điều 29 của Luật Đấu thầu (liên quan đến mua sắm thuốc), cơ quan nào có thẩm quyền quyết định phương án lựa chọn nhà thầu?</t>
+  </si>
+  <si>
+    <t>Đối với trường hợp quy định tại điểm c khoản 1 Điều 29 của Luật Đấu thầu (liên quan đến bảo đảm quốc phòng, an ninh), cơ quan nào có thẩm quyền quyết định cuối cùng về phương án lựa chọn nhà thầu?</t>
+  </si>
+  <si>
+    <t>Trong quá trình thẩm định phương án lựa chọn nhà thầu trong trường hợp đặc biệt, Bộ Kế hoạch và Đầu tư có vai trò gì?</t>
+  </si>
+  <si>
+    <t>Hồ sơ trình thẩm định, phê duyệt phương án lựa chọn nhà thầu trong trường hợp đặc biệt cần phải nhấn mạnh vào yếu tố nào?</t>
+  </si>
+  <si>
+    <t>Ưu điểm lớn nhất của việc áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt là gì?</t>
+  </si>
+  <si>
+    <t>Trong bao lâu kể từ ngày nhận được hồ sơ hợp lệ, Bộ Kế hoạch và Đầu tư phải gửi hồ sơ lấy ý kiến của các bộ, cơ quan có liên quan?</t>
+  </si>
+  <si>
+    <t>Trong thời hạn bao lâu kể từ ngày nhận được đề nghị của Bộ Kế hoạch và Đầu tư, các cơ quan được lấy ý kiến phải có ý kiến gửi lại?</t>
+  </si>
+  <si>
+    <t>Bộ Kế hoạch và Đầu tư có bao nhiêu ngày để lập báo cáo thẩm định và dự thảo Quyết định của Thủ tướng Chính phủ?</t>
+  </si>
+  <si>
+    <t>Cơ quan nào có thẩm quyền quyết định áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt đối với các trường hợp quy định tại các điểm d, đ, e, g và h khoản 1 Điều 29 của Luật Đấu thầu?</t>
+  </si>
+  <si>
+    <t>Đối với gói thầu thuộc trường hợp quy định tại điểm d khoản 1 Điều 29 (liên quan đến vụ kiện), cơ quan nào chịu trách nhiệm xây dựng tiêu chí, điều khoản tham chiếu để lựa chọn tổ chức hành nghề luật sư?</t>
+  </si>
+  <si>
+    <t>Quy trình lựa chọn nhà thầu đối với các trường hợp quy định tại các điểm đ, e, g và h khoản 1 Điều 29 (trừ trường hợp mua vé máy bay) bao gồm bao nhiêu bước?</t>
+  </si>
+  <si>
+    <t>Đối với gói thầu mua vé máy bay cho đoàn đi công tác trong nước, người có thẩm quyền ký hợp đồng với nhà cung cấp là ai?</t>
+  </si>
+  <si>
+    <t>Quy trình lựa chọn nhà thầu trong trường hợp đặc biệt (trừ trường hợp mua vé máy bay) bao gồm những bước nào?</t>
+  </si>
+  <si>
+    <t>Khi mua vé máy bay cho đoàn đi công tác quốc tế, cơ quan, đơn vị cần lấy tối thiểu bao nhiêu báo giá để so sánh?</t>
+  </si>
+  <si>
+    <t>Điều kiện nào sau đây KHÔNG BẮT BUỘC để cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ tại địa phương có tư cách hợp lệ tham gia thực hiện gói thầu?</t>
+  </si>
+  <si>
+    <t>Ai được lựa chọn để đại diện cho cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ ký kết hợp đồng?</t>
+  </si>
+  <si>
+    <t>Mục đích của việc cho phép cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ tại địa phương tham gia thực hiện gói thầu là gì?</t>
+  </si>
+  <si>
+    <t>Ai là người chịu trách nhiệm dự thảo hợp đồng khi lựa chọn nhà thầu là cộng đồng dân cư?</t>
+  </si>
+  <si>
+    <t>Trong trường hợp chỉ có một cộng đồng dân cư hoặc tổ chức đoàn thể, nhóm thợ quan tâm đến gói thầu, chủ đầu tư sẽ làm gì?</t>
+  </si>
+  <si>
+    <t>Kết quả lựa chọn cộng đồng dân cư, tổ chức đoàn thể hoặc nhóm thợ được công khai ở đâu?</t>
+  </si>
+  <si>
+    <t>Trường hợp nào chủ đầu tư được phép giao gói thầu cho nhóm thợ thực hiện?</t>
+  </si>
+  <si>
+    <t>Ai là người chịu trách nhiệm giám sát việc thực hiện gói thầu có sự tham gia của cộng đồng?</t>
+  </si>
+  <si>
+    <t>Thành phần nào bắt buộc phải có trong quá trình nghiệm thu gói thầu có sự tham gia của cộng đồng?</t>
+  </si>
+  <si>
+    <t>Chủ đầu tư có thể tạm ứng cho cộng đồng dân cư bằng hình thức nào?</t>
+  </si>
+  <si>
+    <t>Trong trường hợp nào đơn vị mua sắm tập trung được phép thuê tư vấn đấu thầu?</t>
+  </si>
+  <si>
+    <t>Đối với hàng hóa, dịch vụ thuộc danh mục phải áp dụng mua sắm tập trung sử dụng thỏa thuận khung, đơn vị có nhu cầu mua sắm phải làm gì?</t>
+  </si>
+  <si>
+    <t>Điều gì xảy ra nếu đơn vị có nhu cầu mua sắm ký kết hợp đồng với nhà thầu không được lựa chọn thông qua mua sắm tập trung trong khi thỏa thuận khung còn hiệu lực?</t>
+  </si>
+  <si>
+    <t>Ai là người chịu trách nhiệm trong việc mua sắm tập trung?</t>
+  </si>
+  <si>
+    <t>Thỏa thuận khung là gì?</t>
+  </si>
+  <si>
+    <t>Mua sắm tập trung được áp dụng cho loại hàng hóa, dịch vụ nào?</t>
+  </si>
+  <si>
+    <t>Đơn vị mua sắm tập trung có trách nhiệm gì trong mua sắm tập trung?</t>
+  </si>
+  <si>
+    <t>Việc xác định khối lượng mua sắm tập trung được căn cứ vào yếu tố nào?</t>
+  </si>
+  <si>
+    <t>Đơn vị mua sắm tập trung có trách nhiệm gì đối với cơ sở khám bệnh, chữa bệnh tư nhân?</t>
+  </si>
+  <si>
+    <t>Trong trường hợp đơn vị mua sắm tập trung trực tiếp ký kết hợp đồng với nhà thầu, khi nào nhà thầu phải thực hiện biện pháp bảo đảm thực hiện hợp đồng?</t>
+  </si>
+  <si>
+    <t>Nhà thầu bị khóa tài khoản trên Hệ thống mạng đấu thầu quốc gia trong bao lâu nếu không ký hợp đồng hoặc không thực hiện biện pháp bảo đảm thực hiện hợp đồng trừ trường hợp bất khả kháng khi Nhà thầu đã ký thỏa thuận khung và được đơn vị có nhu cầu mua sắm yêu cầu ký hợp đồng ?</t>
+  </si>
+  <si>
+    <t>Việc khóa tài khoản của nhà thầu vi phạm được tính từ thời điểm nào?</t>
+  </si>
+  <si>
+    <t>Đơn vị nào quy định nội dung chi tiết của thỏa thuận khung?</t>
+  </si>
+  <si>
+    <t>Nội dung nào sau đây không bắt buộc phải có trong thỏa thuận khung?</t>
+  </si>
+  <si>
+    <t>Ai có thẩm quyền quyết định việc mua sắm tài sản công tại cơ quan, đơn vị?</t>
+  </si>
+  <si>
+    <t>Thủ trưởng cơ quan trung ương có quyền quyết định việc mua sắm tài sản trong trường hợp nào?</t>
+  </si>
+  <si>
+    <t>Chào hàng cạnh tranh đối với gói thầu cung cấp dịch vụ phi tư vấn, mua sắm hàng hóa, xây lắp, gói thầu hỗn hợp cung cấp hàng hóa và xây lắp.
+Đấu thầu rộng rãi, đấu thầu hạn chế đối với gói thầu cung cấp dịch vụ phi tư vấn, mua sắm hàng hóa, xây lắp, hỗn hợp đòi hỏi kỹ thuật cao theo quy định của pháp luật về khoa học, công nghệ. 
+Chỉ định thầu đối với gói thầu cung cấp dịch vụ tư vấn.
+Đấu thầu rộng rãi, đấu thầu hạn chế đối với gói thầu mua sắm hàng hóa, xây lắp, hỗn hợp có kỹ thuật, công nghệ mới, phức tạp, có tính đặc thù mà chưa xác định được chính xác các yêu cầu kỹ thuật cụ thể, đầy đủ cho gói thầu tại thời điểm tổ chức đấu thầu.</t>
+  </si>
+  <si>
+    <t>Áp dụng hình thức chỉ định thầu.
+Áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt. 
+Bắt buộc phải tổ chức đấu thầu rộng rãi quốc tế.
+Bắt buộc phải tổ chức đấu thầu rộng rãi trong nước.</t>
+  </si>
+  <si>
+    <t>Thời hạn áp dụng thỏa thuận khung được quy định trong kế hoạch lựa chọn nhà thầu nhưng không quá 36 tháng. Tại thời điểm ký thỏa thuận khung, hồ sơ dự thầu của nhà thầu được lựa chọn còn hiệu lực.
+Đối với nhà thầu liên danh, thành viên đứng đầu liên danh đại đại diện cho liên danh ký  thỏa thuận khung với bên mời thầu.
+Khi áp dụng hình thức mua sắm tập trung, bắt buộc phải ký thỏa thuận khung đối với gói thầu không chia phần.
+Khi áp dụng hình thức mua sắm tập trung, bắt buộc phải ký thỏa thuận khung đối với gói thầu chia phần.</t>
+  </si>
+  <si>
+    <t>Được lập đồng thời hoặc độc lập với báo cáo nghiên cứu khả thi.
+Được phê duyệt trước khi báo cáo nghiên cứu khả thi được phê duyệt.
+Chủ đầu tư hoặc cơ quan chuẩn bị dự án bắt buộc phải trình người có thẩm quyền xem xét, quyết định.
+Cả 03 đáp án a, b, c đều sai.</t>
+  </si>
+  <si>
+    <t>Phải lập kế hoạch lựa chọn nhà thầu cho toàn bộ dự án, dự toán mua sắm.
+Trường hợp chưa đủ điều kiện lập kế hoạch lựa chọn nhà thầu cho toàn bộ dự án, dự toán mua sắm thì lập kế hoạch lựa chọn nhà thầu cho một hoặc một số gói thầu để thực hiện trước. 
+Không được lập kế hoạch lựa chọn nhà thầu cho các gói thầu có thời gian thực hiện dài hơn 01 năm.
+Cả 02 đáp án a, b đều đúng.</t>
+  </si>
+  <si>
+    <t>Nhà thầu đã trúng thầu thông qua đấu thầu rộng rãi, đàm phán giá; khối lượng mua thêm không vượt 30% của khối lượng hạng mục tương ứng nêu trong hợp đồng.
+Có dự toán được phê duyệt đối với khối lượng mua thêm; đơn giá của hàng hóa, dịch vụ mua thêm không được vượt đơn giá của các hàng hóa, dịch vụ tương ứng trong hợp đồng.
+Chỉ áp dụng trong thời gian có hiệu lực của hợp đồng.
+Cả 03 đáp án a, b và c đều đúng.</t>
+  </si>
+  <si>
+    <t>Các hoạt động thực hiện trước khi ký kết điều ước quốc tế, thỏa thuận về vốn ODA và vốn vay ưu đãi của nhà tài trợ nước ngoài gồm: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn.
+Không được phép thực hiện các hoạt động: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn trước khi ký kết điều ước quốc tế, thỏa thuận về vốn ODA và vốn vay ưu đãi của nhà tài trợ nước ngoài.
+Được phép thực hiện các hoạt động: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn trước khi phê duyệt dự án sử dụng vốn ngân sách nhà nước.
+Người có thẩm quyền quyết định cho phép thực hiện các hoạt động: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn trước khi phê duyệt dự án sử dụng vốn ngân sách nhà nước.</t>
+  </si>
+  <si>
+    <t>Hồ sơ mời thầu được yêu cầu cụ thể về nhãn hiệu, xuất xứ.
+Hồ sơ mời thầu được nêu xuất xứ theo nhóm nước, vùng lãnh thổ.
+Trong mọi trường hợp, hồ sơ mời thầu đều không được nêu yêu cầu về nhãn hiệu, xuất xứ.
+Trường hợp người có thẩm quyền chấp thuận, hồ sơ mời thầu được nêu yêu cầu cụ thể về nhãn hiệu, xuất xứ để lựa chọn đúng hàng hóa mong muốn.</t>
+  </si>
+  <si>
+    <t>Bắt buộc phải thương thảo hợp đồng với tất cả các hình thức lựa chọn nhà thầu.
+Chỉ thương thảo hợp đồng với gói thầu áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.
+Không bắt buộc thương thảo hợp đồng với gói thầu mua sắm hàng hóa, xây lắp, cung cấp dịch vụ phi tư vấn áp dụng đấu thầu quốc tế, gói thầu hỗn hợp và gói thầu có yêu cầu kỹ thuật cao áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.
+Không bắt buộc thương thảo hợp đồng với gói thầu dịch vụ tư vấn áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.</t>
+  </si>
+  <si>
+    <t>Hàng hóa có xuất xứ Việt Nam.
+Nhà thầu là doanh nghiệp khởi nghiệp sáng tạo theo quy định của pháp luật.
+Nhà thầu có sử dụng số lượng lao động nữ từ 25% trở lên; số lượng lao động là thương binh, người khuyết tật từ 25% trở lên; số lượng lao động là người dân tộc thiểu số từ 25% trở lên.
+Cả 3 đáp án a, b, c đều đúng.</t>
+  </si>
+  <si>
+    <t>Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng theo tỷ lệ phần trăm, hợp đồng theo chi phí cộng phí, hợp đồng theo kết quả đầu ra, hợp đồng hỗn hợp.
+Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng theo tỷ lệ phần trăm.
+Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian.
+Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng hỗn hợp.</t>
+  </si>
+  <si>
+    <t>Trường hợp là nhà thầu liên danh, tất cả thành viên tham gia liên danh phải trực tiếp ký, đóng dấu (nếu có) vào văn bản hợp đồng.
+Trường hợp là nhà thầu liên danh, trong hợp đồng ký với chủ đầu tư chỉ cần nhà thầu đứng đầu liên danh đại diện ký hợp đồng với chủ đầu tư.
+Trường hợp là nhà thầu liên danh, trong hợp đồng ký với chủ đầu tư, không yêu cầu phải có tất cả các nhà thầu liên danh ký với chủ đầu tư.
+Theo quy định của Chủ đầu tư.</t>
+  </si>
+  <si>
+    <t>Nhà thầu cung cấp dịch vụ tư vấn.
+Nhà thầu được lựa chọn theo hình thức tự thực hiện hoặc hình thức tham gia thực hiện của cộng đồng.
+Nhà thầu thực hiện gói thầu có giá gói thầu thuộc hạn mức chỉ định thầu quy định tại điểm m khoản 1 Điều 23 của Luật Đấu thầu số 22/2023/QH15.
+Tất cả 03 đáp án a, b và c đều đúng.</t>
+  </si>
+  <si>
+    <t>Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng có hiệu lực cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng bao gồm nghĩa vụ về bảo hành. 
+Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng có hiệu lực cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng hoặc ngày chuyển sang thực hiện nghĩa vụ bảo hành đối với trường hợp có quy định về bảo hành. 
+Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng được các bên ký kết cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng hoặc ngày chuyển sang thực hiện nghĩa vụ bảo hành đối với trường hợp có quy định về bảo hành.
+Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng được các bên ký kết cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng  bao gồm nghĩa vụ về bảo hành.</t>
+  </si>
+  <si>
+    <t>Chủ đầu tư và nhà thầu bắt buộc phải ký kết phụ lục hợp đồng để sửa đổi hợp đồng.
+Chủ đầu tư được quyền quyết định việc ký kết hoặc không ký kết phụ lục hợp đồng để sửa đổi hợp đồng.
+Khi sửa đổi hợp đồng làm thay đổi thời gian thực hiện hợp đồng hoặc vượt giá gói thầu (bao gồm dự phòng) được duyệt thì phải được người có thẩm quyền cho phép. Giá hợp đồng sau khi điều chỉnh phải bảo đảm khong vượt tổng mức đầu tư, dự toán mua sắm.
+Trong mọi trường hợp không được sửa đổi hợp đồng đã ký kết.</t>
+  </si>
+  <si>
+    <t>Các bên ký kết hợp đồng có trách nhiệm thực hiện theo hợp đồng đã ký kết.
+Bảo đảm trung thực, hợp tác và đúng pháp luật.
+Không xâm phạm đến lợi ích của Nhà nước, cộng đồng và lợi ích hợp pháp của tổ chức, cá nhân khác.
+Các đáp án a, b và c đều đúng.</t>
+  </si>
+  <si>
+    <t>Thuộc trách nhiệm của người có thẩm quyền.
+Thuộc trách nhiệm của chủ đầu tư trong trường hợp gói thầu được thực hiện trước khi có quyết định phê duyệt dự án, gói thầu đấu thầu trước; kế hoạch lựa chọn nhà thầu đối với dự án đã phê duyệt kế hoạch tổng thể lựa chọn nhà thầu.
+Trong mọi trường hợp, người có thẩm quyền chịu trách nhiệm phê duyệt kế hoạch lựa chọn nhà thầu.
+Cả 02 đáp án a và b đều đúng.</t>
+  </si>
+  <si>
+    <t>Chủ đầu tư đối với dự án.
+Bên mời thầu đối với dự toán mua sắm.
+Chủ đầu tư đối với dự án và dự toán mua sắm. 
+Cả 03 đáp án a, b và c trên đều đúng.</t>
+  </si>
+  <si>
+    <t>Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng.
+Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng, tùy chọn mua thêm (nếu có) và giám sát (nếu có).
+Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng, tùy chọn mua thêm (nếu có).
+Tất cả 03 đáp án trên đều sai.</t>
+  </si>
+  <si>
+    <t>Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn hoặc được ký số, gửi trên Hệ thống mạng đấu thầu quốc gia. 
+Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn.
+Đơn kiến nghị phải được ký số, gửi trên Hệ thống mạng đấu thầu quốc gia.
+Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn và gửi trên Hệ thống mạng đấu thầu quốc gia.</t>
+  </si>
+  <si>
+    <t>Bộ Kế hoạch và Đầu tư.
+Bộ Y tế.
+Chủ tịch Ủy ban nhân dân cấp tỉnh.
+Thủ tướng Chính phủ.</t>
+  </si>
+  <si>
+    <t>Bộ Kế hoạch và Đầu tư.
+Bộ Quốc phòng.
+Thủ tướng Chính phủ.
+Chủ tịch Ủy ban nhân dân cấp tỉnh.</t>
+  </si>
+  <si>
+    <t>Lập báo cáo thẩm định.
+Lấy ý kiến của các bộ, ngành liên quan.
+Cả A và B đều đúng.
+Chỉ có A là đúng.</t>
+  </si>
+  <si>
+    <t>Tính cấp thiết của dự án.
+Lý do không thể áp dụng hình thức lựa chọn nhà thầu thông thường.
+Năng lực của các nhà thầu tiềm năng.
+Tất cả các đáp án trên.</t>
+  </si>
+  <si>
+    <t>Tiết kiệm thời gian.
+Đảm bảo tính bảo mật.
+Tăng tính cạnh tranh.
+Giảm chi phí.</t>
+  </si>
+  <si>
+    <t>3 ngày làm việc
+5 ngày làm việc
+7 ngày làm việc
+10 ngày làm việc</t>
+  </si>
+  <si>
+    <t>5 ngày làm việc
+7 ngày làm việc
+10 ngày làm việc
+15 ngày làm việc</t>
+  </si>
+  <si>
+    <t>Bộ Kế hoạch và Đầu tư
+Người có thẩm quyền của cơ quan, đơn vị
+Thủ trưởng cơ quan trung ương, Ủy ban nhân dân cấp tỉnh
+Bộ trưởng Bộ Y tế</t>
+  </si>
+  <si>
+    <t>Bộ Tư pháp
+Cơ quan chủ trì giải quyết vụ kiện
+Tổ chức luật sư
+Tòa án</t>
+  </si>
+  <si>
+    <t>3 bước
+4 bước
+5 bước
+6 bước</t>
+  </si>
+  <si>
+    <t>Người đứng đầu cơ quan, đơn vị được giao kinh phí và nhiệm vụ mua vé máy bay
+Bộ trưởng Bộ Giao thông vận tải
+Chủ tịch Ủy ban nhân dân cấp tỉnh
+Giám đốc Sở Giao thông vận tải</t>
+  </si>
+  <si>
+    <t>Lập kế hoạch, thương thảo hợp đồng, ký kết hợp đồng
+Lập kế hoạch, phê duyệt kế hoạch, thương thảo hợp đồng, ký kết hợp đồng
+Lập kế hoạch, thẩm định kế hoạch, phê duyệt kế hoạch, thương thảo hợp đồng, phê duyệt kết quả lựa chọn nhà thầu, ký kết hợp đồng
+Thương thảo hợp đồng, phê duyệt kết quả lựa chọn nhà thầu, ký kết hợp đồng</t>
+  </si>
+  <si>
+    <t>1 báo giá
+2 báo giá
+3 báo giá
+4 báo giá</t>
+  </si>
+  <si>
+    <t>Sinh sống, cư trú trên địa bàn triển khai gói thầu
+Được hưởng lợi từ gói thầu
+Có kinh nghiệm thực hiện các gói thầu tương tự trước đây
+Người đại diện có năng lực hành vi dân sự đầy đủ</t>
+  </si>
+  <si>
+    <t>Người có trình độ chuyên môn cao nhất
+Người có uy tín nhất trong cộng đồng
+Người được cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ lựa chọn
+Người do Chủ đầu tư chỉ định</t>
+  </si>
+  <si>
+    <t>Tạo điều kiện cho cộng đồng tham gia phát triển kinh tế - xã hội
+Giảm chi phí thực hiện gói thầu
+Tăng cường sự minh bạch trong quá trình đấu thầu
+Nâng cao chất lượng công trình</t>
+  </si>
+  <si>
+    <t>Ủy ban nhân dân cấp xã
+Chủ đầu tư
+Cộng đồng dân cư
+Tổ chức đoàn thể</t>
+  </si>
+  <si>
+    <t>Tổ chức đấu thầu lại
+Xem xét giao cho cộng đồng dân cư đó thực hiện
+Huỷ bỏ gói thầu
+Tìm kiếm nhà thầu khác</t>
+  </si>
+  <si>
+    <t>Hệ thống mạng đấu thầu quốc gia
+Trụ sở Ủy ban nhân dân cấp xã
+Phương tiện truyền thông cấp xã
+Cả ba phương án trên</t>
+  </si>
+  <si>
+    <t>Khi không có cộng đồng dân cư nào quan tâm.
+Khi nhóm thợ có đủ năng lực hơn cộng đồng dân cư.
+Khi chủ đầu tư muốn tiết kiệm chi phí.
+Khi có yêu cầu từ Ủy ban nhân dân cấp xã.</t>
+  </si>
+  <si>
+    <t>Chỉ chủ đầu tư.
+Ủy ban nhân dân cấp xã.
+Tổ chức đoàn thể.
+Cả chủ đầu tư, Ủy ban nhân dân cấp xã và các tổ chức đoàn thể.</t>
+  </si>
+  <si>
+    <t>Đại diện cơ quan thuế.
+Đại diện Ủy ban nhân dân cấp huyện.
+Đại diện cộng đồng dân cư được hưởng lợi từ gói thầu.
+Chuyên gia độc lập.</t>
+  </si>
+  <si>
+    <t>Tiền mặt.
+Chuyển khoản.
+Cả A và B đều đúng.
+Chỉ được tạm ứng bằng hiện vật.</t>
+  </si>
+  <si>
+    <t>Khi đơn vị muốn tiết kiệm thời gian.
+Khi đơn vị thiếu kinh nghiệm trong lĩnh vực mua sắm.
+Khi đơn vị không đủ năng lực thực hiện lựa chọn nhà thầu.
+Khi giá trị gói thầu quá lớn.</t>
+  </si>
+  <si>
+    <t>Tự tổ chức lựa chọn nhà thầu.
+Ký kết hợp đồng với nhà thầu do mình lựa chọn.
+Ký kết hợp đồng với nhà thầu đã được lựa chọn thông qua mua sắm tập trung.
+Mua sắm trực tiếp từ nhà cung cấp.</t>
+  </si>
+  <si>
+    <t>Hợp đồng bị hủy bỏ.
+Đơn vị bị xử phạt hành chính.
+Không được thanh toán.
+Tất cả đáp án trên đều đúng</t>
+  </si>
+  <si>
+    <t>Bộ trưởng Bộ Kế hoạch và Đầu tư.
+Thủ trưởng đơn vị mua sắm tập trung.
+Chủ tịch Ủy ban nhân dân cấp tỉnh.
+Người có thẩm quyền của đơn vị có nhu cầu mua sắm.</t>
+  </si>
+  <si>
+    <t>Hợp đồng mua bán hàng hóa, dịch vụ.
+Văn bản thỏa thuận giữa các nhà thầu.
+Văn bản thỏa thuận về nguyên tắc, nội dung cơ bản của việc mua sắm tập trung.
+Quy định về hình thức lựa chọn nhà thầu.</t>
+  </si>
+  <si>
+    <t>Hàng hóa, dịch vụ thông thường.
+Hàng hóa, dịch vụ chuyên ngành.
+Hàng hóa, dịch vụ thuộc danh mục phải mua sắm tập trung.
+Tất cả các đáp án trên.</t>
+  </si>
+  <si>
+    <t>Thực hiện trách nhiệm của chủ đầu tư.
+Thực hiện trách nhiệm của người có thẩm quyền.
+Chỉ chịu trách nhiệm về việc lựa chọn nhà thầu.
+Không chịu trách nhiệm gì.</t>
+  </si>
+  <si>
+    <t>Danh mục hàng hóa, dịch vụ của các đơn vị gửi đến đơn vị mua sắm tập trung.
+Khối lượng và số lượng sử dụng thực tế của kỳ mua sắm trước đó.
+Cả A và B đều đúng.
+Chỉ căn cứ vào khối lượng và số lượng sử dụng thực tế của kỳ mua sắm trước đó.</t>
+  </si>
+  <si>
+    <t>Không có trách nhiệm gì.
+Tổng hợp nhu cầu mua sắm và tổ chức mua thuốc, hóa chất, vật tư xét nghiệm, thiết bị y tế.
+Chỉ tổng hợp nhu cầu mua sắm.
+Chỉ tổ chức mua thuốc, hóa chất, vật tư xét nghiệm, thiết bị y tế.</t>
+  </si>
+  <si>
+    <t>Trước khi ký kết thỏa thuận khung.
+Sau khi ký kết hợp đồng.
+Trước hoặc cùng thời điểm hợp đồng có hiệu lực.
+Không cần thực hiện biện pháp bảo đảm.</t>
+  </si>
+  <si>
+    <t>3 tháng.
+6 tháng.
+1 năm.
+Vĩnh viễn.</t>
+  </si>
+  <si>
+    <t>Ngày nhà thầu vi phạm hợp đồng.
+Ngày đơn vị mua sắm tập trung gửi văn bản đề nghị đến Bộ Kế hoạch và Đầu tư.
+Ngày Bộ Kế hoạch và Đầu tư nhận được văn bản đề nghị của đơn vị mua sắm tập trung.
+Ngày Bộ Kế hoạch và Đầu tư ra quyết định xử phạt vi phạm.</t>
+  </si>
+  <si>
+    <t>Chủ đầu tư.
+Đơn vị có nhu cầu mua sắm.
+Đơn vị mua sắm tập trung.
+Bộ Kế hoạch và Đầu tư.</t>
+  </si>
+  <si>
+    <t>Phạm vi cung cấp hàng hóa, dịch vụ.
+Mức giá trần của từng loại hàng hóa, dịch vụ.
+Các điều khoản phạt vi phạm.
+Thông tin chi tiết về năng lực của nhà thầu.</t>
+  </si>
+  <si>
+    <t>Thủ trưởng đơn vị dự toán.
+Thủ trưởng cơ quan trung ương.
+Thực hiện theo quy định của pháp luật về quản lý, sử dụng tài sản công.
+Hội đồng nhân dân cấp tỉnh.</t>
+  </si>
+  <si>
+    <t>Mua sắm tài sản công.
+Mua sắm tài sản thuộc các nhiệm vụ khoa học và công nghệ sử dụng ngân sách nhà nước.
+Mua sắm phục vụ hoạt động của đơn vị sự nghiệp công lập.
+Đáp án B và C đều đúng</t>
+  </si>
+  <si>
+    <t>Đấu thầu rộng rãi, đấu thầu hạn chế đối với gói thầu cung cấp dịch vụ phi tư vấn, mua sắm hàng hóa, xây lắp, hỗn hợp đòi hỏi kỹ thuật cao theo quy định của pháp luật về khoa học, công nghệ.</t>
+  </si>
+  <si>
+    <t>Áp dụng hình thức lựa chọn nhà thầu trong trường hợp đặc biệt.</t>
+  </si>
+  <si>
+    <t>Thời hạn áp dụng thỏa thuận khung được quy định trong kế hoạch lựa chọn nhà thầu nhưng không quá 36 tháng. Tại thời điểm ký thỏa thuận khung, hồ sơ dự thầu của nhà thầu được lựa chọn còn hiệu lực.</t>
+  </si>
+  <si>
+    <t>Được lập đồng thời hoặc độc lập với báo cáo nghiên cứu khả thi.</t>
+  </si>
+  <si>
+    <t>Trường hợp chưa đủ điều kiện lập kế hoạch lựa chọn nhà thầu cho toàn bộ dự án, dự toán mua sắm thì lập kế hoạch lựa chọn nhà thầu cho một hoặc một số gói thầu để thực hiện trước.</t>
+  </si>
+  <si>
+    <t>Cả 03 đáp án a, b và c đều đúng.</t>
+  </si>
+  <si>
+    <t>Các hoạt động thực hiện trước khi ký kết điều ước quốc tế, thỏa thuận về vốn ODA và vốn vay ưu đãi của nhà tài trợ nước ngoài gồm: lập, trình duyệt, thẩm định, phê duyệt kế hoạch lựa chọn nhà thầu, hồ sơ mời quan tâm, hồ sơ mời sơ tuyển, hồ sơ mời thầu, hồ sơ yêu cầu, xác định danh sách ngắn.</t>
+  </si>
+  <si>
+    <t>Hồ sơ mời thầu được nêu xuất xứ theo nhóm nước, vùng lãnh thổ.</t>
+  </si>
+  <si>
+    <t>Không bắt buộc thương thảo hợp đồng với gói thầu mua sắm hàng hóa, xây lắp, cung cấp dịch vụ phi tư vấn áp dụng đấu thầu quốc tế, gói thầu hỗn hợp và gói thầu có yêu cầu kỹ thuật cao áp dụng hình thức đấu thầu rộng rãi, đấu thầu hạn chế.</t>
+  </si>
+  <si>
+    <t>Cả 3 đáp án a, b, c đều đúng</t>
+  </si>
+  <si>
+    <t>Hợp đồng trọn gói, hợp đồng theo đơn giá cố định, hợp đồng theo đơn giá điều chỉnh, hợp đồng theo thời gian, hợp đồng theo tỷ lệ phần trăm.</t>
+  </si>
+  <si>
+    <t>Trường hợp là nhà thầu liên danh, tất cả thành viên tham gia liên danh phải trực tiếp ký, đóng dấu (nếu có) vào văn bản hợp đồng.</t>
+  </si>
+  <si>
+    <t>Tất cả 03 đáp án a, b và c đều đúng.</t>
+  </si>
+  <si>
+    <t>Thời gian có hiệu lực của bảo đảm thực hiện hợp đồng được tính từ ngày hợp đồng có hiệu lực cho đến ngày các bên hoàn thành nghĩa vụ theo hợp đồng hoặc ngày chuyển sang thực hiện nghĩa vụ bảo hành đối với trường hợp có quy định về bảo hành.</t>
+  </si>
+  <si>
+    <t>Khi sửa đổi hợp đồng làm thay đổi thời gian thực hiện hợp đồng hoặc vượt giá gói thầu (bao gồm dự phòng) được duyệt thì phải được người có thẩm quyền cho phép. Giá hợp đồng sau khi điều chỉnh phải bảo đảm khong vượt tổng mức đầu tư, dự toán mua sắm.</t>
+  </si>
+  <si>
+    <t>Các đáp án a, b và c đều đúng</t>
+  </si>
+  <si>
+    <t>Cả 02 đáp án a và b đều đúng.</t>
+  </si>
+  <si>
+    <t>Chủ đầu tư đối với dự án và dự toán mua sắm.</t>
+  </si>
+  <si>
+    <t>Tên gói thầu; giá gói thầu; nguồn vốn; hình thức và phương thức lựa chọn nhà thầu; thời gian bắt đầu tổ chức lựa chọn nhà thầu; loại hợp đồng; thời gian thực hiện hợp đồng, tùy chọn mua thêm (nếu có) và giám sát (nếu có).</t>
+  </si>
+  <si>
+    <t>Đơn kiến nghị phải có chữ ký, đóng dấu (nếu có) của người đại diện hợp pháp của nhà thầu, nhà đầu tư, cơ quan, tổ chức gửi đơn hoặc được ký số, gửi trên Hệ thống mạng đấu thầu quốc gia.</t>
+  </si>
+  <si>
+    <t>Bộ Y tế.</t>
+  </si>
+  <si>
+    <t>Thủ tướng Chính phủ.</t>
+  </si>
+  <si>
+    <t>Cả A và B đều đúng.</t>
+  </si>
+  <si>
+    <t>Lý do không thể áp dụng hình thức lựa chọn nhà thầu thông thường.</t>
+  </si>
+  <si>
+    <t>Đảm bảo tính bảo mật.</t>
+  </si>
+  <si>
+    <t>5 ngày làm việc</t>
+  </si>
+  <si>
+    <t>7 ngày làm việc</t>
+  </si>
+  <si>
+    <t>10 ngày làm việc</t>
+  </si>
+  <si>
+    <t>Thủ trưởng cơ quan trung ương, Ủy ban nhân dân cấp tỉnh</t>
+  </si>
+  <si>
+    <t>Cơ quan chủ trì giải quyết vụ kiện</t>
+  </si>
+  <si>
+    <t>4 bước</t>
+  </si>
+  <si>
+    <t>Người đứng đầu cơ quan, đơn vị được giao kinh phí và nhiệm vụ mua vé máy bay</t>
+  </si>
+  <si>
+    <t>Lập kế hoạch, thẩm định kế hoạch, phê duyệt kế hoạch, thương thảo hợp đồng, phê duyệt kết quả lựa chọn nhà thầu, ký kết hợp đồng</t>
+  </si>
+  <si>
+    <t>2 báo giá</t>
+  </si>
+  <si>
+    <t>Có kinh nghiệm thực hiện các gói thầu tương tự trước đây</t>
+  </si>
+  <si>
+    <t>Người được cộng đồng dân cư, tổ chức đoàn thể, nhóm thợ lựa chọn</t>
+  </si>
+  <si>
+    <t>Tạo điều kiện cho cộng đồng tham gia phát triển kinh tế - xã hội</t>
+  </si>
+  <si>
+    <t>Chủ đầu tư</t>
+  </si>
+  <si>
+    <t>Xem xét giao cho cộng đồng dân cư đó thực hiện</t>
+  </si>
+  <si>
+    <t>Cả ba phương án trên</t>
+  </si>
+  <si>
+    <t>Khi không có cộng đồng dân cư nào quan tâm</t>
+  </si>
+  <si>
+    <t>Cả chủ đầu tư, Ủy ban nhân dân cấp xã và các tổ chức đoàn thể.</t>
+  </si>
+  <si>
+    <t>Đại diện cộng đồng dân cư được hưởng lợi từ gói thầu.</t>
+  </si>
+  <si>
+    <t>Khi đơn vị không đủ năng lực thực hiện lựa chọn nhà thầu.</t>
+  </si>
+  <si>
+    <t>Ký kết hợp đồng với nhà thầu đã được lựa chọn thông qua mua sắm tập trung.</t>
+  </si>
+  <si>
+    <t>Tất cả đáp án trên đều đúng</t>
+  </si>
+  <si>
+    <t>Thủ trưởng đơn vị mua sắm tập trung.</t>
+  </si>
+  <si>
+    <t>Quy định về hình thức lựa chọn nhà thầu</t>
+  </si>
+  <si>
+    <t>Hàng hóa, dịch vụ thuộc danh mục phải mua sắm tập trung.</t>
+  </si>
+  <si>
+    <t>Thực hiện trách nhiệm của chủ đầu tư.</t>
+  </si>
+  <si>
+    <t>Tổng hợp nhu cầu mua sắm và tổ chức mua thuốc, hóa chất, vật tư xét nghiệm, thiết bị y tế.</t>
+  </si>
+  <si>
+    <t>Trước hoặc cùng thời điểm hợp đồng có hiệu lực.</t>
+  </si>
+  <si>
+    <t>6 tháng.</t>
+  </si>
+  <si>
+    <t>Ngày Bộ Kế hoạch và Đầu tư nhận được văn bản đề nghị của đơn vị mua sắm tập trung</t>
+  </si>
+  <si>
+    <t>Đơn vị mua sắm tập trung.</t>
+  </si>
+  <si>
+    <t>Thông tin chi tiết về năng lực của nhà thầu.</t>
+  </si>
+  <si>
+    <t>Thực hiện theo quy định của pháp luật về quản lý, sử dụng tài sản công.</t>
+  </si>
+  <si>
+    <t>Đáp án B và C đều đúng</t>
   </si>
   <si>
     <t>Không hình ảnh</t>
@@ -1123,7 +1120,7 @@
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="-10" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" customWidth="1"/>
   </cols>
@@ -1171,10 +1168,10 @@
         <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1194,10 +1191,10 @@
         <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1217,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1240,10 +1237,10 @@
         <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1263,10 +1260,10 @@
         <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1286,10 +1283,10 @@
         <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1309,10 +1306,10 @@
         <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1332,10 +1329,10 @@
         <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1355,10 +1352,10 @@
         <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1378,10 +1375,10 @@
         <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1401,10 +1398,10 @@
         <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1424,10 +1421,10 @@
         <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1447,10 +1444,10 @@
         <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1470,10 +1467,10 @@
         <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1493,10 +1490,10 @@
         <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1516,10 +1513,10 @@
         <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1539,10 +1536,10 @@
         <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1562,10 +1559,10 @@
         <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1585,10 +1582,10 @@
         <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1608,10 +1605,10 @@
         <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1631,10 +1628,10 @@
         <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1654,10 +1651,10 @@
         <v>149</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1677,10 +1674,10 @@
         <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1700,10 +1697,10 @@
         <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1723,10 +1720,10 @@
         <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1746,10 +1743,10 @@
         <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1769,10 +1766,10 @@
         <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1792,10 +1789,10 @@
         <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1815,10 +1812,10 @@
         <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1838,10 +1835,10 @@
         <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1861,10 +1858,10 @@
         <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1884,10 +1881,10 @@
         <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1907,10 +1904,10 @@
         <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1930,10 +1927,10 @@
         <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1953,10 +1950,10 @@
         <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1976,10 +1973,10 @@
         <v>163</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1999,10 +1996,10 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2022,10 +2019,10 @@
         <v>165</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2045,10 +2042,10 @@
         <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2068,10 +2065,10 @@
         <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2091,10 +2088,10 @@
         <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2114,10 +2111,10 @@
         <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2137,10 +2134,10 @@
         <v>170</v>
       </c>
       <c r="F44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2157,13 +2154,13 @@
         <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2180,13 +2177,13 @@
         <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2203,13 +2200,13 @@
         <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2226,13 +2223,13 @@
         <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2249,13 +2246,13 @@
         <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2272,13 +2269,13 @@
         <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2295,13 +2292,13 @@
         <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2318,13 +2315,13 @@
         <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2344,10 +2341,10 @@
         <v>150</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2364,13 +2361,13 @@
         <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2387,13 +2384,13 @@
         <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2410,13 +2407,13 @@
         <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2433,13 +2430,13 @@
         <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2456,13 +2453,13 @@
         <v>124</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2479,13 +2476,13 @@
         <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2502,13 +2499,13 @@
         <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2525,13 +2522,13 @@
         <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/convert/output.xlsx
+++ b/convert/output.xlsx
@@ -1119,8 +1119,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="-10" customWidth="1"/>
+    <col min="3" max="5" width="50.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" customWidth="1"/>
   </cols>
